--- a/static/jigouluru.xlsx
+++ b/static/jigouluru.xlsx
@@ -11500,7 +11500,7 @@
   <dimension ref="A1:AA1172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -32451,16 +32451,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="10">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1164 Y2:Y1142">
       <formula1>INDIRECT(E2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1167:D1172">
       <formula1>"_520000_贵州省"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="身份证号长度不对" promptTitle="输入身份证号" sqref="B2:B1110">
-      <formula1>15</formula1>
-      <formula2>20</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1166 W2:W1164">
       <formula1>shenfen</formula1>
